--- a/biology/Botanique/Ochrophyta/Ochrophyta.xlsx
+++ b/biology/Botanique/Ochrophyta/Ochrophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterokontophyta · Ochrophytes, Hétérocontophytes
 Les Ochrophyta (ou Heterokontophyta) sont une division d’« algues brun-doré » du règne des Chromista.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Ochrophyta est dérivé du grec ὠχρός / ochrós, « jaune pâle », et  φυτό / phytó, plante.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 janvier 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 janvier 2022) :
 Bolidophyceae L.Guillou &amp; M.-J.Chrétiennot-Dinet
 Chrysomeridophyceae Cavalier-Smith
 Chrysoparadoxophyceae Wetherbee, 2018
@@ -563,7 +579,7 @@
 Schizocladiophyceae E.C.Henry, K.Okuda &amp; H.Kawai, 2003
 Synchromophyceae S.Horn &amp; C.Wilhelm, 2007
 Xanthophyceae P.Allorge ex F.E.Fritsch
-Selon World Register of Marine Species                               (12 août 2017)[2] :
+Selon World Register of Marine Species                               (12 août 2017) :
 Aurearenophyceae
 Bacillariophyceae
 Bolidophyceae
@@ -607,9 +623,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme basé sur les travaux de Ruggiero et al. 2015 &amp; Silar 2016[3],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme basé sur les travaux de Ruggiero et al. 2015 &amp; Silar 2016, :
 </t>
         </is>
       </c>
